--- a/biology/Mycologie/Leucopaxille_gigantesque/Leucopaxille_gigantesque.xlsx
+++ b/biology/Mycologie/Leucopaxille_gigantesque/Leucopaxille_gigantesque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucopaxillus giganteus
 Le Leucopaxille gigantesque (Leucopaxillus giganteus) est une espèce de champignons de la famille des Tricholomataceae, dégageant une sorte de lait lorsqu'on en touche les lamelles.
@@ -512,10 +524,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse habituellement sur les sols rocheux près des bois de hêtre ou de conifères[réf. nécessaire].
-C'est un champignon saprophyte. Il se développe le plus souvent en groupes, formant parfois des ronds de sorcières[1].
+C'est un champignon saprophyte. Il se développe le plus souvent en groupes, formant parfois des ronds de sorcières.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors des périodes plutôt sèches de juillet à octobre.
 </t>
@@ -575,15 +591,17 @@
           <t>Données générales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ce champignon est l'une des plus grosses espèces de Tricholomatacées.
-Considéré comme comestible par certains, il peut toutefois être mal digéré par d'autres. Malgré sa consistance intéressante, il sera donc préférable d'éviter sa consommation[2].
+Considéré comme comestible par certains, il peut toutefois être mal digéré par d'autres. Malgré sa consistance intéressante, il sera donc préférable d'éviter sa consommation.
 Chapeau : de 10 à 30 cm ou plus, ombiliqué et en entonnoir, duveteux sur une marge  sinuée et lisse, blanchâtre, parfois zoné selon le degré hydrométrique
 Lames : fines, serrées et décurrentes, de couleur blanchâtre à crème
 Anneau (champignon) : néant
 Pied : massif, trapu, court et coriace, de la même couleur que le chapeau.
-Chair : blanche, odeur fongique agréable un peu aromatique [3]
+Chair : blanche, odeur fongique agréable un peu aromatique 
 Période de cueillette : à partir du début de l'été et jusqu'au milieu de l'automne
 Biotopes : prés pâturés ou non, jardins, parcs clairières et lisières de bois pour peu qu'il y ait de l'herbe
 Spores : blanches.
